--- a/Diagnostico.xlsx
+++ b/Diagnostico.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Problemas</t>
   </si>
@@ -333,19 +333,13 @@
   </si>
   <si>
     <t>MCD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>M+B17:K18ultiplicar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,13 +347,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,11 +407,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,7 +702,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,15 +801,17 @@
         <v>44</v>
       </c>
       <c r="M2" s="1"/>
+      <c r="N2" s="8"/>
       <c r="P2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5"/>
       <c r="U2" s="3" t="s">
         <v>83</v>
       </c>
@@ -788,6 +821,7 @@
       <c r="W2" s="1">
         <v>0</v>
       </c>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -799,6 +833,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
@@ -808,6 +843,7 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
+      <c r="I3" s="7"/>
       <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
@@ -822,6 +858,7 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
+      <c r="S3" s="7"/>
       <c r="U3" s="3" t="s">
         <v>84</v>
       </c>
@@ -831,6 +868,7 @@
       <c r="W3" s="1">
         <v>0</v>
       </c>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -842,6 +880,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="D4" s="5"/>
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
@@ -851,6 +890,7 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
+      <c r="I4" s="7"/>
       <c r="K4" s="3" t="s">
         <v>47</v>
       </c>
@@ -860,6 +900,7 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
+      <c r="N4" s="5"/>
       <c r="P4" s="3" t="s">
         <v>65</v>
       </c>
@@ -869,6 +910,7 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
+      <c r="S4" s="7"/>
       <c r="U4" s="3" t="s">
         <v>85</v>
       </c>
@@ -878,6 +920,7 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -889,6 +932,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
+      <c r="D5" s="5"/>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
@@ -898,6 +942,7 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
+      <c r="I5" s="7"/>
       <c r="K5" s="3" t="s">
         <v>48</v>
       </c>
@@ -907,6 +952,7 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
+      <c r="N5" s="8"/>
       <c r="P5" s="3" t="s">
         <v>66</v>
       </c>
@@ -916,6 +962,7 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
+      <c r="S5" s="7"/>
       <c r="U5" s="3" t="s">
         <v>87</v>
       </c>
@@ -925,6 +972,7 @@
       <c r="W5" s="1">
         <v>0</v>
       </c>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -940,6 +988,7 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
+      <c r="I6" s="7"/>
       <c r="K6" s="3" t="s">
         <v>49</v>
       </c>
@@ -949,6 +998,7 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
+      <c r="N6" s="8"/>
       <c r="P6" s="3" t="s">
         <v>67</v>
       </c>
@@ -958,6 +1008,7 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
+      <c r="S6" s="7"/>
       <c r="U6" s="3" t="s">
         <v>86</v>
       </c>
@@ -967,6 +1018,7 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -978,6 +1030,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
+      <c r="D7" s="6"/>
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
@@ -987,6 +1040,7 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
+      <c r="I7" s="7"/>
       <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
@@ -996,6 +1050,7 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
+      <c r="N7" s="8"/>
       <c r="P7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1010,6 +1065,7 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1021,6 +1077,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
+      <c r="D8" s="5"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1030,6 +1087,7 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
+      <c r="I8" s="7"/>
       <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1039,6 +1097,7 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
+      <c r="N8" s="5"/>
       <c r="P8" s="3" t="s">
         <v>69</v>
       </c>
@@ -1048,6 +1107,7 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
+      <c r="S8" s="7"/>
       <c r="U8" s="3" t="s">
         <v>89</v>
       </c>
@@ -1057,6 +1117,7 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1072,6 +1133,7 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
+      <c r="I9" s="7"/>
       <c r="K9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1081,6 +1143,7 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="5"/>
       <c r="P9" s="3" t="s">
         <v>70</v>
       </c>
@@ -1090,6 +1153,7 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
+      <c r="S9" s="7"/>
       <c r="U9" s="2" t="s">
         <v>90</v>
       </c>
@@ -1106,6 +1170,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
+      <c r="D10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1125,6 +1190,7 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
+      <c r="S10" s="7"/>
       <c r="U10" s="3" t="s">
         <v>91</v>
       </c>
@@ -1134,6 +1200,7 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1149,6 +1216,7 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
+      <c r="I11" s="5"/>
       <c r="K11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1158,6 +1226,7 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
+      <c r="N11" s="5"/>
       <c r="P11" s="3" t="s">
         <v>72</v>
       </c>
@@ -1167,15 +1236,17 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
+      <c r="S11" s="7"/>
       <c r="U11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
       </c>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1187,6 +1258,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
+      <c r="D12" s="5"/>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
@@ -1196,6 +1268,7 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
+      <c r="I12" s="5"/>
       <c r="K12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1205,6 +1278,7 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
+      <c r="N12" s="5"/>
       <c r="P12" s="3" t="s">
         <v>73</v>
       </c>
@@ -1214,15 +1288,17 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
+      <c r="S12" s="7"/>
       <c r="U12" s="3" t="s">
         <v>93</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
       </c>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1234,6 +1310,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
+      <c r="D13" s="5"/>
       <c r="F13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1248,6 +1325,7 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
+      <c r="N13" s="5"/>
       <c r="P13" s="3" t="s">
         <v>74</v>
       </c>
@@ -1257,15 +1335,17 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
+      <c r="S13" s="7"/>
       <c r="U13" s="3" t="s">
         <v>94</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
         <v>0</v>
       </c>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1281,6 +1361,7 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
+      <c r="I14" s="5"/>
       <c r="K14" s="3" t="s">
         <v>57</v>
       </c>
@@ -1290,6 +1371,7 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
+      <c r="N14" s="5"/>
       <c r="P14" s="3" t="s">
         <v>75</v>
       </c>
@@ -1299,15 +1381,17 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
+      <c r="S14" s="7"/>
       <c r="U14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
+      <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1319,6 +1403,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="D15" s="8"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1328,6 +1413,7 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
+      <c r="I15" s="5"/>
       <c r="K15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1337,6 +1423,7 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
+      <c r="N15" s="5"/>
       <c r="P15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1346,15 +1433,17 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
+      <c r="S15" s="7"/>
       <c r="U15" s="3" t="s">
         <v>96</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
+      <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1366,6 +1455,7 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
+      <c r="D16" s="5"/>
       <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1389,17 +1479,19 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
+      <c r="S16" s="7"/>
       <c r="U16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1409,6 +1501,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
+      <c r="D17" s="5"/>
       <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1418,6 +1511,7 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
+      <c r="I17" s="5"/>
       <c r="K17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1427,6 +1521,7 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
+      <c r="N17" s="5"/>
       <c r="P17" s="3" t="s">
         <v>78</v>
       </c>
@@ -1436,6 +1531,7 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
+      <c r="S17" s="7"/>
       <c r="U17" s="3" t="s">
         <v>98</v>
       </c>
@@ -1445,8 +1541,9 @@
       <c r="W17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1456,6 +1553,7 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
+      <c r="D18" s="5"/>
       <c r="F18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1465,8 +1563,9 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
+      <c r="I18" s="5"/>
       <c r="K18" s="3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1474,6 +1573,7 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
+      <c r="N18" s="5"/>
       <c r="P18" s="2" t="s">
         <v>79</v>
       </c>
@@ -1483,13 +1583,14 @@
         <v>99</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1499,6 +1600,7 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
+      <c r="D19" s="5"/>
       <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1513,6 +1615,7 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
+      <c r="N19" s="5"/>
       <c r="P19" s="3" t="s">
         <v>80</v>
       </c>
@@ -1522,17 +1625,19 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
+      <c r="S19" s="5"/>
       <c r="U19" s="3" t="s">
         <v>100</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1542,6 +1647,7 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
+      <c r="D20" s="8"/>
       <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1551,6 +1657,7 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
+      <c r="I20" s="8"/>
       <c r="K20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1560,6 +1667,7 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
+      <c r="N20" s="5"/>
       <c r="P20" s="3" t="s">
         <v>81</v>
       </c>
@@ -1569,6 +1677,7 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
+      <c r="S20" s="5"/>
       <c r="U20" s="3" t="s">
         <v>101</v>
       </c>
@@ -1578,8 +1687,9 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1589,6 +1699,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
+      <c r="D21" s="8"/>
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1598,6 +1709,7 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
+      <c r="I21" s="8"/>
       <c r="K21" s="3" t="s">
         <v>62</v>
       </c>
@@ -1607,6 +1719,7 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
+      <c r="N21" s="5"/>
       <c r="P21" s="3" t="s">
         <v>82</v>
       </c>
@@ -1616,6 +1729,7 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
+      <c r="S21" s="5"/>
       <c r="U21" s="3" t="s">
         <v>102</v>
       </c>
@@ -1625,15 +1739,21 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$3-2 + $D$3-1= 0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
